--- a/biology/Médecine/Prix_Minkowski/Prix_Minkowski.xlsx
+++ b/biology/Médecine/Prix_Minkowski/Prix_Minkowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Minkowski  est attribué par l'Association Européenne pour l'Étude du Diabète (EASD) en reconnaissance des activités de recherche dans le domaine du diabète par une personne résidant en Europe. 
-Le prix Minkowski[1] récompense des recherches ayant contribué à l'avancement des connaissances concernant le diabète et rend  hommage à Oskar Minkowski, médecin et physiologiste allemand. Il est attribué annuellement depuis 1966 et les personnes lauréates sont invitées prendre la parole au cours de la conférence annuelle de l'EASD. Depuis 1966 le prix est sponsorisé par la compagnie pharmaceutique Sanofi-Aventis. Il consiste en un certificat et 20 000 euros ainsi que le remboursement de frais de voyage. Les candidats et candidates doivent être âgées de moins de 45 ans au premier janvier de l'année en cours. 
+Le prix Minkowski récompense des recherches ayant contribué à l'avancement des connaissances concernant le diabète et rend  hommage à Oskar Minkowski, médecin et physiologiste allemand. Il est attribué annuellement depuis 1966 et les personnes lauréates sont invitées prendre la parole au cours de la conférence annuelle de l'EASD. Depuis 1966 le prix est sponsorisé par la compagnie pharmaceutique Sanofi-Aventis. Il consiste en un certificat et 20 000 euros ainsi que le remboursement de frais de voyage. Les candidats et candidates doivent être âgées de moins de 45 ans au premier janvier de l'année en cours. 
 Self-nomination is also possible.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Listes des lauréats et lauréates</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1966 Aarhus – P. J. Randle (Royaume-Uni)
